--- a/public/Formate.xlsx
+++ b/public/Formate.xlsx
@@ -41,12 +41,19 @@
         <loext:char-complex-color loext:theme-type="dark1" loext:color-type="theme"/>
       </style:text-properties>
     </style:style>
+    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N0">
+      <style:table-cell-properties style:cell-protect="protected" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom" loext:vertical-justify="auto"/>
+      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="bold">
+        <loext:char-complex-color loext:theme-type="dark1" loext:color-type="theme"/>
+      </style:text-properties>
+    </style:style>
   </office:automatic-styles>
   <office:body>
     <office:spreadsheet>
       <table:calculation-settings table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true"/>
       <table:table table:name="Sheet1" table:style-name="ta1">
-        <table:table-column table:style-name="co1" table:number-columns-repeated="6" table:default-cell-style-name="ce1"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="6" table:default-cell-style-name="ce2"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>Instakit</text:p>
@@ -641,9 +648,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2025-06-05">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2025-06-06">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="22:21:00.164676900">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="12:27:49.329645500">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/public/Formate.xlsx
+++ b/public/Formate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Instakit</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region ID / Branch ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region Name / Branch Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y or N (Y-Assigned / N-Not Assigned)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional</t>
   </si>
 </sst>
 </file>
@@ -113,8 +125,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,40 +323,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>10131432</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>148832032</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
